--- a/biology/Médecine/Alliance_Maladies_rares/Alliance_Maladies_rares.xlsx
+++ b/biology/Médecine/Alliance_Maladies_rares/Alliance_Maladies_rares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alliance maladies rares est une association loi de 1901 regroupant des associations de malades.
 Créée le 24 février 2000, l'Alliance maladies rares rassemble plus de 230 associations de malades. Elle représente près de 3 millions de malades et entre 6 000 et 8 000 maladies rares. Elle accueille aussi en son sein des associations de malades et des patients isolés.
@@ -512,7 +524,9 @@
           <t>Objectif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'Alliance maladies rares a pour missions :
 de faire connaître et reconnaître les maladies rares auprès du public, des pouvoirs publics et des professionnels de santé. Pour ce faire, elle informe sur les enjeux scientifiques, sanitaires et sociaux des maladies rares. Elle œuvre en faveur de la médiatisation de la problématique des maladies rares ;
@@ -546,7 +560,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les membres, on trouve les associations suivantes :
 la Ligue nationale contre le cancer ;
